--- a/docs/画面項目定義書/mo_subnet_create.xlsx
+++ b/docs/画面項目定義書/mo_subnet_create.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F68B7F-3D80-403B-95A5-FBA7D3C4F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060FC82F-313A-41EC-BA91-938781A11579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>日本工学院</t>
   </si>
@@ -164,16 +164,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>許可する・許可しない</t>
-    <rPh sb="0" eb="2">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>IPアドレス</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -181,13 +171,6 @@
     <t>サブネット名</t>
     <rPh sb="5" eb="6">
       <t>サクナ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>例：192.168.1.0/24</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1097,7 +1080,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1235,7 +1218,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13">
@@ -1254,7 +1237,7 @@
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13">
@@ -1269,7 +1252,7 @@
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
@@ -1299,7 +1282,7 @@
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
@@ -1315,9 +1298,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="27"/>
-      <c r="E15" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="E15" s="28"/>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
     </row>
@@ -1331,11 +1312,9 @@
       <c r="C16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>27</v>
-      </c>
+      <c r="E16" s="33"/>
       <c r="G16" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13">

--- a/docs/画面項目定義書/mo_subnet_create.xlsx
+++ b/docs/画面項目定義書/mo_subnet_create.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060FC82F-313A-41EC-BA91-938781A11579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E31A3CD-C290-44BA-B725-D4B077762B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -92,13 +92,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>セキュリティグループ作成モーダル</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>モーダル削除×ボタン</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
@@ -219,6 +212,13 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>サブネット作成モーダル</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1079,21 +1079,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1104,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1113,7 +1113,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1122,7 +1122,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1131,7 +1131,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1144,9 +1144,9 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="39" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="11"/>
@@ -1155,7 +1155,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1164,7 +1164,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="34"/>
@@ -1218,15 +1218,15 @@
         <v>17</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>12</v>
@@ -1237,22 +1237,22 @@
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="24">
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
@@ -1262,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>14</v>
@@ -1270,19 +1270,19 @@
       <c r="E13" s="33"/>
       <c r="G13" s="35"/>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="24">
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
@@ -1292,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>14</v>
@@ -1302,22 +1302,22 @@
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:7" ht="13">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="24">
         <v>8</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="33"/>
       <c r="G16" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="24">
         <v>10</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" ht="13">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="24">
         <v>12</v>
       </c>
@@ -1361,12 +1361,12 @@
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="24">
         <v>14</v>
       </c>
@@ -1377,26 +1377,26 @@
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="24">
         <v>16</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -1405,7 +1405,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
@@ -1414,7 +1414,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
@@ -1423,7 +1423,7 @@
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
